--- a/results/I3_N5_M2_T45_C100_DepCentral_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2835.16241291739</v>
+        <v>855.1027510092772</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009999990463256836</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.3774807691977</v>
+        <v>19.25725746793464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.50165123422644</v>
+        <v>8.691653843503172</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.156583382414978</v>
+        <v>4.537147384845644</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2525.900000000003</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -653,31 +653,9 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -835,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +857,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -951,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.77588400245558</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38.23614766451188</v>
+        <v>37.66223190247689</v>
       </c>
     </row>
     <row r="5">
@@ -983,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.655348703365654</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.34465129663435</v>
+        <v>41.49915775529188</v>
       </c>
     </row>
     <row r="9">
@@ -999,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42.07307351732687</v>
+        <v>34.79834375740628</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,10 +1026,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1062,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1076,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1090,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1101,13 +1079,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1118,10 +1096,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1132,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1146,10 +1124,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1160,10 +1138,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,13 +1149,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1185,13 +1163,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1202,68 +1180,12 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>125.5050000000004</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -1377,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>131.3400000000004</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -1388,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>134.4650000000004</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
@@ -1399,7 +1321,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>137.05</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -1410,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
@@ -1421,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>319.4600000000002</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
@@ -1432,7 +1354,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>311.5</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
@@ -1443,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>323.4300000000002</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
@@ -1454,7 +1376,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>319.05</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
@@ -1465,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>325.9</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
@@ -1476,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1487,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1498,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1509,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1520,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1531,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999994</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -1542,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1553,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -1564,7 +1486,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
@@ -1575,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1586,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1597,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1608,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1619,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1630,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1641,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>125.5050000000004</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33">
@@ -1652,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>131.3400000000004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34">
@@ -1663,7 +1585,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>134.4650000000004</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35">
@@ -1674,7 +1596,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>137.05</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36">
@@ -1685,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>135.25</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37">
@@ -1696,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>319.4600000000002</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38">
@@ -1707,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>311.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39">
@@ -1718,7 +1640,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>323.4300000000002</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -1729,7 +1651,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>319.05</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -1740,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>325.9</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1787,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25.50500000000044</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1798,7 +1720,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>31.34000000000043</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
@@ -1809,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>34.46500000000043</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
@@ -1820,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>37.05</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -1831,7 +1753,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1842,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>219.4600000000002</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1853,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>211.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1864,7 +1786,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>223.4300000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1875,7 +1797,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>219.05</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1886,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>225.9</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1944,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1955,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1966,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1977,7 +1899,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2153,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2164,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2175,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2186,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2197,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2211,7 +2133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2348,10 +2270,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2359,67 +2281,12 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="n">
         <v>1</v>
       </c>
     </row>
